--- a/language_prod.xlsx
+++ b/language_prod.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MK\Documents\PROG 8110\Finals\jasmineAngularManMonths\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="17920" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Lang_prod" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B348" authorId="0">
+    <comment ref="B348" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2060,20 +2065,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E491"/>
+  <dimension ref="B3:F491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="G353" sqref="G353"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" customHeight="1">
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1">
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2101,7 +2106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1">
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1">
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2130,8 +2135,11 @@
       <c r="E6" s="6">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1">
+      <c r="F6">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2145,8 +2153,11 @@
       <c r="E7" s="9">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1">
+      <c r="F7">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2160,8 +2171,11 @@
       <c r="E8" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1">
+      <c r="F8">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2175,8 +2189,11 @@
       <c r="E9" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1">
+      <c r="F9">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -2190,8 +2207,11 @@
       <c r="E10" s="6">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1">
+      <c r="F10">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2206,7 +2226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1">
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2221,7 +2241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1">
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
@@ -2236,7 +2256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1">
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2251,7 +2271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1">
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1">
+    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2311,7 +2331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
@@ -2356,7 +2376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
@@ -2371,7 +2391,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
@@ -2386,7 +2406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
@@ -2431,7 +2451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
@@ -2446,7 +2466,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
@@ -2461,7 +2481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
@@ -2476,7 +2496,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
@@ -2491,7 +2511,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
@@ -2506,7 +2526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
@@ -2521,7 +2541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
@@ -2536,7 +2556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
@@ -2551,7 +2571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
@@ -2566,7 +2586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
@@ -2581,7 +2601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
         <v>36</v>
       </c>
@@ -2596,7 +2616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
@@ -2626,7 +2646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
@@ -2641,7 +2661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2656,7 +2676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
@@ -2671,7 +2691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2686,7 +2706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
@@ -2701,7 +2721,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
         <v>44</v>
       </c>
@@ -2716,7 +2736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
@@ -2731,7 +2751,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
         <v>46</v>
       </c>
@@ -2746,7 +2766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
@@ -2761,7 +2781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
@@ -2791,7 +2811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
         <v>50</v>
       </c>
@@ -2806,7 +2826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
@@ -2821,7 +2841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
         <v>52</v>
       </c>
@@ -2836,7 +2856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>53</v>
       </c>
@@ -2851,7 +2871,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="7" t="s">
         <v>54</v>
       </c>
@@ -2866,7 +2886,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
@@ -2881,7 +2901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
         <v>56</v>
       </c>
@@ -2896,7 +2916,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>57</v>
       </c>
@@ -2911,7 +2931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="7" t="s">
         <v>58</v>
       </c>
@@ -2926,7 +2946,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>59</v>
       </c>
@@ -2941,7 +2961,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="7" t="s">
         <v>60</v>
       </c>
@@ -2956,7 +2976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>61</v>
       </c>
@@ -2971,7 +2991,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="7" t="s">
         <v>62</v>
       </c>
@@ -2986,7 +3006,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
@@ -3001,7 +3021,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="15" customHeight="1">
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="7" t="s">
         <v>64</v>
       </c>
@@ -3016,7 +3036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="15" customHeight="1">
+    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>65</v>
       </c>
@@ -3031,7 +3051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="15" customHeight="1">
+    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="7" t="s">
         <v>66</v>
       </c>
@@ -3046,7 +3066,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="15" customHeight="1">
+    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
@@ -3061,7 +3081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1">
+    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="7" t="s">
         <v>68</v>
       </c>
@@ -3076,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="15" customHeight="1">
+    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>69</v>
       </c>
@@ -3091,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1">
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7" t="s">
         <v>70</v>
       </c>
@@ -3106,7 +3126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="15" customHeight="1">
+    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
         <v>71</v>
       </c>
@@ -3121,7 +3141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1">
+    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="7" t="s">
         <v>72</v>
       </c>
@@ -3136,7 +3156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="15" customHeight="1">
+    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="16" t="s">
         <v>488</v>
       </c>
@@ -3151,7 +3171,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="15" customHeight="1">
+    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
@@ -3166,7 +3186,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="15" customHeight="1">
+    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="7" t="s">
         <v>74</v>
       </c>
@@ -3181,7 +3201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="15" customHeight="1">
+    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
         <v>75</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" customHeight="1">
+    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="7" t="s">
         <v>76</v>
       </c>
@@ -3211,7 +3231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1">
+    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
         <v>77</v>
       </c>
@@ -3226,7 +3246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1">
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="7" t="s">
         <v>78</v>
       </c>
@@ -3241,7 +3261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1">
+    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="4" t="s">
         <v>79</v>
       </c>
@@ -3256,7 +3276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="7" t="s">
         <v>80</v>
       </c>
@@ -3271,7 +3291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>81</v>
       </c>
@@ -3286,7 +3306,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1">
+    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="7" t="s">
         <v>82</v>
       </c>
@@ -3301,7 +3321,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1">
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
         <v>83</v>
       </c>
@@ -3316,7 +3336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1">
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="7" t="s">
         <v>84</v>
       </c>
@@ -3331,7 +3351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1">
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
         <v>85</v>
       </c>
@@ -3346,7 +3366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1">
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="7" t="s">
         <v>86</v>
       </c>
@@ -3361,7 +3381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1">
+    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="4" t="s">
         <v>87</v>
       </c>
@@ -3376,7 +3396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1">
+    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="7" t="s">
         <v>88</v>
       </c>
@@ -3391,7 +3411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1">
+    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>89</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1">
+    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="7" t="s">
         <v>90</v>
       </c>
@@ -3421,7 +3441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1">
+    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>91</v>
       </c>
@@ -3436,7 +3456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="15" customHeight="1">
+    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="7" t="s">
         <v>92</v>
       </c>
@@ -3451,7 +3471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="15" customHeight="1">
+    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
         <v>93</v>
       </c>
@@ -3466,7 +3486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="7" t="s">
         <v>94</v>
       </c>
@@ -3481,7 +3501,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="15" customHeight="1">
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
         <v>95</v>
       </c>
@@ -3496,7 +3516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="15" customHeight="1">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="7" t="s">
         <v>96</v>
       </c>
@@ -3511,7 +3531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="15" customHeight="1">
+    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>97</v>
       </c>
@@ -3526,7 +3546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="15" customHeight="1">
+    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="7" t="s">
         <v>98</v>
       </c>
@@ -3541,7 +3561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="15" customHeight="1">
+    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="4" t="s">
         <v>99</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1">
+    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="7" t="s">
         <v>100</v>
       </c>
@@ -3571,7 +3591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1">
+    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
         <v>101</v>
       </c>
@@ -3586,7 +3606,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1">
+    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="7" t="s">
         <v>102</v>
       </c>
@@ -3601,7 +3621,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1">
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="4" t="s">
         <v>103</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1">
+    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="7" t="s">
         <v>104</v>
       </c>
@@ -3631,7 +3651,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="4" t="s">
         <v>105</v>
       </c>
@@ -3646,7 +3666,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="7" t="s">
         <v>106</v>
       </c>
@@ -3661,7 +3681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="15" customHeight="1">
+    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="4" t="s">
         <v>107</v>
       </c>
@@ -3676,7 +3696,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="15" customHeight="1">
+    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="7" t="s">
         <v>108</v>
       </c>
@@ -3691,7 +3711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1">
+    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="4" t="s">
         <v>109</v>
       </c>
@@ -3706,7 +3726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="15" customHeight="1">
+    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="7" t="s">
         <v>110</v>
       </c>
@@ -3721,7 +3741,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="15" customHeight="1">
+    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="4" t="s">
         <v>111</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="15" customHeight="1">
+    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="7" t="s">
         <v>112</v>
       </c>
@@ -3751,7 +3771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="15" customHeight="1">
+    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="4" t="s">
         <v>113</v>
       </c>
@@ -3766,7 +3786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="15" customHeight="1">
+    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="7" t="s">
         <v>114</v>
       </c>
@@ -3781,7 +3801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="15" customHeight="1">
+    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="4" t="s">
         <v>115</v>
       </c>
@@ -3796,7 +3816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="15" customHeight="1">
+    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="7" t="s">
         <v>116</v>
       </c>
@@ -3811,7 +3831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="15" customHeight="1">
+    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="4" t="s">
         <v>117</v>
       </c>
@@ -3826,7 +3846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="15" customHeight="1">
+    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="7" t="s">
         <v>118</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="15" customHeight="1">
+    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="4" t="s">
         <v>119</v>
       </c>
@@ -3856,7 +3876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="15" customHeight="1">
+    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="7" t="s">
         <v>120</v>
       </c>
@@ -3871,7 +3891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="15" customHeight="1">
+    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="4" t="s">
         <v>121</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="15" customHeight="1">
+    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="7" t="s">
         <v>122</v>
       </c>
@@ -3901,7 +3921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="15" customHeight="1">
+    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="4" t="s">
         <v>123</v>
       </c>
@@ -3916,7 +3936,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15" customHeight="1">
+    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="7" t="s">
         <v>124</v>
       </c>
@@ -3931,7 +3951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="15" customHeight="1">
+    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="4" t="s">
         <v>125</v>
       </c>
@@ -3946,7 +3966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="15" customHeight="1">
+    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="7" t="s">
         <v>126</v>
       </c>
@@ -3961,7 +3981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="15" customHeight="1">
+    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="4" t="s">
         <v>127</v>
       </c>
@@ -3976,7 +3996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="15" customHeight="1">
+    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="7" t="s">
         <v>128</v>
       </c>
@@ -3991,7 +4011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="15" customHeight="1">
+    <row r="131" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="4" t="s">
         <v>129</v>
       </c>
@@ -4006,7 +4026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="15" customHeight="1">
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="7" t="s">
         <v>130</v>
       </c>
@@ -4021,7 +4041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="15" customHeight="1">
+    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="4" t="s">
         <v>131</v>
       </c>
@@ -4036,7 +4056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="7" t="s">
         <v>132</v>
       </c>
@@ -4051,7 +4071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="4" t="s">
         <v>133</v>
       </c>
@@ -4066,7 +4086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="7" t="s">
         <v>134</v>
       </c>
@@ -4081,7 +4101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="15" customHeight="1">
+    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="4" t="s">
         <v>135</v>
       </c>
@@ -4096,7 +4116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="15" customHeight="1">
+    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="7" t="s">
         <v>136</v>
       </c>
@@ -4111,7 +4131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1">
+    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="4" t="s">
         <v>137</v>
       </c>
@@ -4126,7 +4146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="15" customHeight="1">
+    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="7" t="s">
         <v>138</v>
       </c>
@@ -4141,7 +4161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="15" customHeight="1">
+    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="4" t="s">
         <v>139</v>
       </c>
@@ -4156,7 +4176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="15" customHeight="1">
+    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="7" t="s">
         <v>140</v>
       </c>
@@ -4171,7 +4191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="15" customHeight="1">
+    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="4" t="s">
         <v>141</v>
       </c>
@@ -4186,7 +4206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="15" customHeight="1">
+    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="7" t="s">
         <v>142</v>
       </c>
@@ -4201,7 +4221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="15" customHeight="1">
+    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="4" t="s">
         <v>143</v>
       </c>
@@ -4216,7 +4236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1">
+    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="7" t="s">
         <v>144</v>
       </c>
@@ -4231,7 +4251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1">
+    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="4" t="s">
         <v>145</v>
       </c>
@@ -4246,7 +4266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1">
+    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="7" t="s">
         <v>146</v>
       </c>
@@ -4261,7 +4281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="15" customHeight="1">
+    <row r="149" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="4" t="s">
         <v>147</v>
       </c>
@@ -4276,7 +4296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="15" customHeight="1">
+    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="7" t="s">
         <v>148</v>
       </c>
@@ -4291,7 +4311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="15" customHeight="1">
+    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="4" t="s">
         <v>149</v>
       </c>
@@ -4306,7 +4326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="15" customHeight="1">
+    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="7" t="s">
         <v>150</v>
       </c>
@@ -4321,7 +4341,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="15" customHeight="1">
+    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="4" t="s">
         <v>151</v>
       </c>
@@ -4336,7 +4356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="15" customHeight="1">
+    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="7" t="s">
         <v>152</v>
       </c>
@@ -4351,7 +4371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="15" customHeight="1">
+    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="4" t="s">
         <v>153</v>
       </c>
@@ -4366,7 +4386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="15" customHeight="1">
+    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="7" t="s">
         <v>154</v>
       </c>
@@ -4381,7 +4401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="15" customHeight="1">
+    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="4" t="s">
         <v>155</v>
       </c>
@@ -4396,7 +4416,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="15" customHeight="1">
+    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="7" t="s">
         <v>156</v>
       </c>
@@ -4411,7 +4431,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="15" customHeight="1">
+    <row r="159" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="4" t="s">
         <v>157</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="15" customHeight="1">
+    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="7" t="s">
         <v>158</v>
       </c>
@@ -4441,7 +4461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="15" customHeight="1">
+    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="4" t="s">
         <v>159</v>
       </c>
@@ -4456,7 +4476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="15" customHeight="1">
+    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="7" t="s">
         <v>160</v>
       </c>
@@ -4471,7 +4491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="2:5" ht="15" customHeight="1">
+    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="4" t="s">
         <v>161</v>
       </c>
@@ -4486,7 +4506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="15" customHeight="1">
+    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="7" t="s">
         <v>162</v>
       </c>
@@ -4501,7 +4521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="15" customHeight="1">
+    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="4" t="s">
         <v>163</v>
       </c>
@@ -4516,7 +4536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="15" customHeight="1">
+    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="7" t="s">
         <v>164</v>
       </c>
@@ -4531,7 +4551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="15" customHeight="1">
+    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="4" t="s">
         <v>165</v>
       </c>
@@ -4546,7 +4566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="15" customHeight="1">
+    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="7" t="s">
         <v>166</v>
       </c>
@@ -4561,7 +4581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="15" customHeight="1">
+    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="4" t="s">
         <v>167</v>
       </c>
@@ -4576,7 +4596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="15" customHeight="1">
+    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="7" t="s">
         <v>168</v>
       </c>
@@ -4591,7 +4611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="15" customHeight="1">
+    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="4" t="s">
         <v>169</v>
       </c>
@@ -4606,7 +4626,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="15" customHeight="1">
+    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="7" t="s">
         <v>170</v>
       </c>
@@ -4621,7 +4641,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="15" customHeight="1">
+    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="4" t="s">
         <v>171</v>
       </c>
@@ -4636,7 +4656,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="15" customHeight="1">
+    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="7" t="s">
         <v>172</v>
       </c>
@@ -4651,7 +4671,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="15" customHeight="1">
+    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="4" t="s">
         <v>173</v>
       </c>
@@ -4666,7 +4686,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="15" customHeight="1">
+    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="7" t="s">
         <v>174</v>
       </c>
@@ -4681,7 +4701,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1">
+    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="4" t="s">
         <v>175</v>
       </c>
@@ -4696,7 +4716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1">
+    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="7" t="s">
         <v>176</v>
       </c>
@@ -4711,7 +4731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1">
+    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="4" t="s">
         <v>177</v>
       </c>
@@ -4726,7 +4746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1">
+    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="7" t="s">
         <v>178</v>
       </c>
@@ -4741,7 +4761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1">
+    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="4" t="s">
         <v>179</v>
       </c>
@@ -4756,7 +4776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1">
+    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="7" t="s">
         <v>180</v>
       </c>
@@ -4771,7 +4791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1">
+    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="4" t="s">
         <v>181</v>
       </c>
@@ -4786,7 +4806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1">
+    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="7" t="s">
         <v>182</v>
       </c>
@@ -4801,7 +4821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1">
+    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="4" t="s">
         <v>183</v>
       </c>
@@ -4816,7 +4836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1">
+    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="7" t="s">
         <v>184</v>
       </c>
@@ -4831,7 +4851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1">
+    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="4" t="s">
         <v>185</v>
       </c>
@@ -4846,7 +4866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1">
+    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="7" t="s">
         <v>186</v>
       </c>
@@ -4861,7 +4881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1">
+    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="4" t="s">
         <v>187</v>
       </c>
@@ -4876,7 +4896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="15" customHeight="1">
+    <row r="190" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="7" t="s">
         <v>188</v>
       </c>
@@ -4891,7 +4911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1">
+    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="4" t="s">
         <v>189</v>
       </c>
@@ -4906,7 +4926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="15" customHeight="1">
+    <row r="192" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="7" t="s">
         <v>190</v>
       </c>
@@ -4921,7 +4941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="15" customHeight="1">
+    <row r="193" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="4" t="s">
         <v>191</v>
       </c>
@@ -4936,7 +4956,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="15" customHeight="1">
+    <row r="194" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="7" t="s">
         <v>192</v>
       </c>
@@ -4951,7 +4971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="15" customHeight="1">
+    <row r="195" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="4" t="s">
         <v>193</v>
       </c>
@@ -4966,7 +4986,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="15" customHeight="1">
+    <row r="196" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="7" t="s">
         <v>194</v>
       </c>
@@ -4981,7 +5001,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="15" customHeight="1">
+    <row r="197" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="4" t="s">
         <v>195</v>
       </c>
@@ -4996,7 +5016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="15" customHeight="1">
+    <row r="198" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="7" t="s">
         <v>196</v>
       </c>
@@ -5011,7 +5031,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="15" customHeight="1">
+    <row r="199" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="4" t="s">
         <v>197</v>
       </c>
@@ -5026,7 +5046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="15" customHeight="1">
+    <row r="200" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="7" t="s">
         <v>198</v>
       </c>
@@ -5041,7 +5061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="15" customHeight="1">
+    <row r="201" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="4" t="s">
         <v>199</v>
       </c>
@@ -5056,7 +5076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="15" customHeight="1">
+    <row r="202" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="7" t="s">
         <v>200</v>
       </c>
@@ -5071,7 +5091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="15" customHeight="1">
+    <row r="203" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="4" t="s">
         <v>201</v>
       </c>
@@ -5086,7 +5106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="15" customHeight="1">
+    <row r="204" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="7" t="s">
         <v>202</v>
       </c>
@@ -5101,7 +5121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="15" customHeight="1">
+    <row r="205" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="4" t="s">
         <v>203</v>
       </c>
@@ -5116,7 +5136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="15" customHeight="1">
+    <row r="206" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="7" t="s">
         <v>204</v>
       </c>
@@ -5131,7 +5151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="15" customHeight="1">
+    <row r="207" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="4" t="s">
         <v>205</v>
       </c>
@@ -5146,7 +5166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="208" spans="2:5" ht="15" customHeight="1">
+    <row r="208" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="7" t="s">
         <v>206</v>
       </c>
@@ -5161,7 +5181,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="15" customHeight="1">
+    <row r="209" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="4" t="s">
         <v>207</v>
       </c>
@@ -5176,7 +5196,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="15" customHeight="1">
+    <row r="210" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="7" t="s">
         <v>208</v>
       </c>
@@ -5191,7 +5211,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="15" customHeight="1">
+    <row r="211" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="4" t="s">
         <v>209</v>
       </c>
@@ -5206,7 +5226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="15" customHeight="1">
+    <row r="212" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="7" t="s">
         <v>210</v>
       </c>
@@ -5221,7 +5241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:5" ht="15" customHeight="1">
+    <row r="213" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="4" t="s">
         <v>211</v>
       </c>
@@ -5236,7 +5256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="2:5" ht="15" customHeight="1">
+    <row r="214" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="7" t="s">
         <v>212</v>
       </c>
@@ -5251,7 +5271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="15" customHeight="1">
+    <row r="215" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="4" t="s">
         <v>213</v>
       </c>
@@ -5266,7 +5286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="15" customHeight="1">
+    <row r="216" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="7" t="s">
         <v>214</v>
       </c>
@@ -5281,7 +5301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="15" customHeight="1">
+    <row r="217" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="4" t="s">
         <v>215</v>
       </c>
@@ -5296,7 +5316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="15" customHeight="1">
+    <row r="218" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="7" t="s">
         <v>216</v>
       </c>
@@ -5311,7 +5331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="15" customHeight="1">
+    <row r="219" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="4" t="s">
         <v>217</v>
       </c>
@@ -5326,7 +5346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="15" customHeight="1">
+    <row r="220" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="7" t="s">
         <v>218</v>
       </c>
@@ -5341,7 +5361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="15" customHeight="1">
+    <row r="221" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="4" t="s">
         <v>219</v>
       </c>
@@ -5356,7 +5376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="15" customHeight="1">
+    <row r="222" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="7" t="s">
         <v>220</v>
       </c>
@@ -5371,7 +5391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="15" customHeight="1">
+    <row r="223" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="4" t="s">
         <v>221</v>
       </c>
@@ -5386,7 +5406,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="15" customHeight="1">
+    <row r="224" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="7" t="s">
         <v>222</v>
       </c>
@@ -5401,7 +5421,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="15" customHeight="1">
+    <row r="225" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="4" t="s">
         <v>223</v>
       </c>
@@ -5416,7 +5436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="15" customHeight="1">
+    <row r="226" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="7" t="s">
         <v>224</v>
       </c>
@@ -5431,7 +5451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="15" customHeight="1">
+    <row r="227" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="4" t="s">
         <v>225</v>
       </c>
@@ -5446,7 +5466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="15" customHeight="1">
+    <row r="228" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="7" t="s">
         <v>226</v>
       </c>
@@ -5461,7 +5481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="15" customHeight="1">
+    <row r="229" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="4" t="s">
         <v>227</v>
       </c>
@@ -5476,7 +5496,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" spans="2:5" ht="15" customHeight="1">
+    <row r="230" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="7" t="s">
         <v>228</v>
       </c>
@@ -5491,7 +5511,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="231" spans="2:5" ht="15" customHeight="1">
+    <row r="231" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="4" t="s">
         <v>229</v>
       </c>
@@ -5506,7 +5526,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="232" spans="2:5" ht="15" customHeight="1">
+    <row r="232" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="7" t="s">
         <v>230</v>
       </c>
@@ -5521,7 +5541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="15" customHeight="1">
+    <row r="233" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="4" t="s">
         <v>231</v>
       </c>
@@ -5536,7 +5556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="2:5" ht="15" customHeight="1">
+    <row r="234" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="7" t="s">
         <v>232</v>
       </c>
@@ -5551,7 +5571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="15" customHeight="1">
+    <row r="235" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="4" t="s">
         <v>233</v>
       </c>
@@ -5566,7 +5586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="15" customHeight="1">
+    <row r="236" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="7" t="s">
         <v>234</v>
       </c>
@@ -5581,7 +5601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="15" customHeight="1">
+    <row r="237" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="4" t="s">
         <v>235</v>
       </c>
@@ -5596,7 +5616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="15" customHeight="1">
+    <row r="238" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="7" t="s">
         <v>236</v>
       </c>
@@ -5611,7 +5631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="15" customHeight="1">
+    <row r="239" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="4" t="s">
         <v>237</v>
       </c>
@@ -5626,7 +5646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="240" spans="2:5" ht="15" customHeight="1">
+    <row r="240" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="7" t="s">
         <v>238</v>
       </c>
@@ -5641,7 +5661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="15" customHeight="1">
+    <row r="241" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="4" t="s">
         <v>239</v>
       </c>
@@ -5656,7 +5676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="15" customHeight="1">
+    <row r="242" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="7" t="s">
         <v>240</v>
       </c>
@@ -5671,7 +5691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="15" customHeight="1">
+    <row r="243" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="4" t="s">
         <v>241</v>
       </c>
@@ -5686,7 +5706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="15" customHeight="1">
+    <row r="244" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="7" t="s">
         <v>242</v>
       </c>
@@ -5701,7 +5721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="15" customHeight="1">
+    <row r="245" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="4" t="s">
         <v>243</v>
       </c>
@@ -5716,7 +5736,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="246" spans="2:5" ht="15" customHeight="1">
+    <row r="246" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="7" t="s">
         <v>244</v>
       </c>
@@ -5731,7 +5751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="15" customHeight="1">
+    <row r="247" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="4" t="s">
         <v>245</v>
       </c>
@@ -5746,7 +5766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="15" customHeight="1">
+    <row r="248" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="7" t="s">
         <v>246</v>
       </c>
@@ -5761,7 +5781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="2:5" ht="15" customHeight="1">
+    <row r="249" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="4" t="s">
         <v>247</v>
       </c>
@@ -5776,7 +5796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="250" spans="2:5" ht="15" customHeight="1">
+    <row r="250" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="7" t="s">
         <v>248</v>
       </c>
@@ -5791,7 +5811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="2:5" ht="15" customHeight="1">
+    <row r="251" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="4" t="s">
         <v>249</v>
       </c>
@@ -5806,7 +5826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="2:5" ht="15" customHeight="1">
+    <row r="252" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="7" t="s">
         <v>250</v>
       </c>
@@ -5821,7 +5841,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="2:5" ht="15" customHeight="1">
+    <row r="253" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="4" t="s">
         <v>251</v>
       </c>
@@ -5836,7 +5856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="15" customHeight="1">
+    <row r="254" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="7" t="s">
         <v>252</v>
       </c>
@@ -5851,7 +5871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="2:5" ht="15" customHeight="1">
+    <row r="255" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="4" t="s">
         <v>253</v>
       </c>
@@ -5866,7 +5886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="2:5" ht="15" customHeight="1">
+    <row r="256" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="7" t="s">
         <v>254</v>
       </c>
@@ -5881,7 +5901,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="257" spans="2:5" ht="15" customHeight="1">
+    <row r="257" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="4" t="s">
         <v>255</v>
       </c>
@@ -5896,7 +5916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="15" customHeight="1">
+    <row r="258" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="7" t="s">
         <v>256</v>
       </c>
@@ -5911,7 +5931,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="259" spans="2:5" ht="15" customHeight="1">
+    <row r="259" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="4" t="s">
         <v>257</v>
       </c>
@@ -5926,7 +5946,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="15" customHeight="1">
+    <row r="260" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="7" t="s">
         <v>258</v>
       </c>
@@ -5941,7 +5961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="15" customHeight="1">
+    <row r="261" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="4" t="s">
         <v>259</v>
       </c>
@@ -5956,7 +5976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="15" customHeight="1">
+    <row r="262" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="7" t="s">
         <v>260</v>
       </c>
@@ -5971,7 +5991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="15" customHeight="1">
+    <row r="263" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="4" t="s">
         <v>261</v>
       </c>
@@ -5986,7 +6006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="15" customHeight="1">
+    <row r="264" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="7" t="s">
         <v>262</v>
       </c>
@@ -6001,7 +6021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="15" customHeight="1">
+    <row r="265" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="4" t="s">
         <v>263</v>
       </c>
@@ -6016,7 +6036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="2:5" ht="15" customHeight="1">
+    <row r="266" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="7" t="s">
         <v>264</v>
       </c>
@@ -6031,7 +6051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267" spans="2:5" ht="15" customHeight="1">
+    <row r="267" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="4" t="s">
         <v>265</v>
       </c>
@@ -6046,7 +6066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="15" customHeight="1">
+    <row r="268" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="7" t="s">
         <v>266</v>
       </c>
@@ -6061,7 +6081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:5" ht="15" customHeight="1">
+    <row r="269" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="4" t="s">
         <v>267</v>
       </c>
@@ -6076,7 +6096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="2:5" ht="15" customHeight="1">
+    <row r="270" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="7" t="s">
         <v>268</v>
       </c>
@@ -6091,7 +6111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="271" spans="2:5" ht="15" customHeight="1">
+    <row r="271" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="4" t="s">
         <v>269</v>
       </c>
@@ -6106,7 +6126,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="272" spans="2:5" ht="15" customHeight="1">
+    <row r="272" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="7" t="s">
         <v>270</v>
       </c>
@@ -6121,7 +6141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="273" spans="2:5" ht="15" customHeight="1">
+    <row r="273" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="4" t="s">
         <v>271</v>
       </c>
@@ -6136,7 +6156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="15" customHeight="1">
+    <row r="274" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="7" t="s">
         <v>272</v>
       </c>
@@ -6151,7 +6171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="275" spans="2:5" ht="15" customHeight="1">
+    <row r="275" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="4" t="s">
         <v>273</v>
       </c>
@@ -6166,7 +6186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="2:5" ht="15" customHeight="1">
+    <row r="276" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="7" t="s">
         <v>274</v>
       </c>
@@ -6181,7 +6201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="15" customHeight="1">
+    <row r="277" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="4" t="s">
         <v>275</v>
       </c>
@@ -6196,7 +6216,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="15" customHeight="1">
+    <row r="278" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="7" t="s">
         <v>276</v>
       </c>
@@ -6211,7 +6231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="15" customHeight="1">
+    <row r="279" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="4" t="s">
         <v>277</v>
       </c>
@@ -6226,7 +6246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="15" customHeight="1">
+    <row r="280" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="7" t="s">
         <v>278</v>
       </c>
@@ -6241,7 +6261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="15" customHeight="1">
+    <row r="281" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="4" t="s">
         <v>279</v>
       </c>
@@ -6256,7 +6276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="15" customHeight="1">
+    <row r="282" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="7" t="s">
         <v>280</v>
       </c>
@@ -6271,7 +6291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="15" customHeight="1">
+    <row r="283" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="4" t="s">
         <v>281</v>
       </c>
@@ -6286,7 +6306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="15" customHeight="1">
+    <row r="284" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="7" t="s">
         <v>282</v>
       </c>
@@ -6301,7 +6321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="15" customHeight="1">
+    <row r="285" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="4" t="s">
         <v>283</v>
       </c>
@@ -6316,7 +6336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="15" customHeight="1">
+    <row r="286" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="7" t="s">
         <v>284</v>
       </c>
@@ -6331,7 +6351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="15" customHeight="1">
+    <row r="287" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="4" t="s">
         <v>285</v>
       </c>
@@ -6346,7 +6366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="2:5" ht="15" customHeight="1">
+    <row r="288" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="7" t="s">
         <v>286</v>
       </c>
@@ -6361,7 +6381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="15" customHeight="1">
+    <row r="289" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="4" t="s">
         <v>287</v>
       </c>
@@ -6376,7 +6396,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="15" customHeight="1">
+    <row r="290" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="7" t="s">
         <v>288</v>
       </c>
@@ -6391,7 +6411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="2:5" ht="15" customHeight="1">
+    <row r="291" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="4" t="s">
         <v>289</v>
       </c>
@@ -6406,7 +6426,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="15" customHeight="1">
+    <row r="292" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="7" t="s">
         <v>290</v>
       </c>
@@ -6421,7 +6441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="15" customHeight="1">
+    <row r="293" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="4" t="s">
         <v>291</v>
       </c>
@@ -6436,7 +6456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="2:5" ht="15" customHeight="1">
+    <row r="294" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="7" t="s">
         <v>292</v>
       </c>
@@ -6451,7 +6471,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="295" spans="2:5" ht="15" customHeight="1">
+    <row r="295" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="4" t="s">
         <v>293</v>
       </c>
@@ -6466,7 +6486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="15" customHeight="1">
+    <row r="296" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="7" t="s">
         <v>294</v>
       </c>
@@ -6481,7 +6501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="297" spans="2:5" ht="15" customHeight="1">
+    <row r="297" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="4" t="s">
         <v>295</v>
       </c>
@@ -6496,7 +6516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="2:5" ht="15" customHeight="1">
+    <row r="298" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="7" t="s">
         <v>296</v>
       </c>
@@ -6511,7 +6531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="15" customHeight="1">
+    <row r="299" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="4" t="s">
         <v>297</v>
       </c>
@@ -6526,7 +6546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="15" customHeight="1">
+    <row r="300" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="7" t="s">
         <v>298</v>
       </c>
@@ -6541,7 +6561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="15" customHeight="1">
+    <row r="301" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="4" t="s">
         <v>299</v>
       </c>
@@ -6556,7 +6576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="15" customHeight="1">
+    <row r="302" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="7" t="s">
         <v>300</v>
       </c>
@@ -6571,7 +6591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="15" customHeight="1">
+    <row r="303" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="4" t="s">
         <v>301</v>
       </c>
@@ -6586,7 +6606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="15" customHeight="1">
+    <row r="304" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="7" t="s">
         <v>302</v>
       </c>
@@ -6601,7 +6621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="15" customHeight="1">
+    <row r="305" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="4" t="s">
         <v>303</v>
       </c>
@@ -6616,7 +6636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="15" customHeight="1">
+    <row r="306" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="7" t="s">
         <v>304</v>
       </c>
@@ -6631,7 +6651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="15" customHeight="1">
+    <row r="307" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="4" t="s">
         <v>305</v>
       </c>
@@ -6646,7 +6666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="15" customHeight="1">
+    <row r="308" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="7" t="s">
         <v>306</v>
       </c>
@@ -6661,7 +6681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="15" customHeight="1">
+    <row r="309" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="4" t="s">
         <v>307</v>
       </c>
@@ -6676,7 +6696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="310" spans="2:5" ht="15" customHeight="1">
+    <row r="310" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="7" t="s">
         <v>308</v>
       </c>
@@ -6691,7 +6711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="311" spans="2:5" ht="15" customHeight="1">
+    <row r="311" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="4" t="s">
         <v>309</v>
       </c>
@@ -6706,7 +6726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="2:5" ht="15" customHeight="1">
+    <row r="312" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="7" t="s">
         <v>310</v>
       </c>
@@ -6721,7 +6741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="313" spans="2:5" ht="15" customHeight="1">
+    <row r="313" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="4" t="s">
         <v>311</v>
       </c>
@@ -6736,7 +6756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="2:5" ht="15" customHeight="1">
+    <row r="314" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="7" t="s">
         <v>312</v>
       </c>
@@ -6751,7 +6771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" spans="2:5" ht="15" customHeight="1">
+    <row r="315" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="4" t="s">
         <v>313</v>
       </c>
@@ -6766,7 +6786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="316" spans="2:5" ht="15" customHeight="1">
+    <row r="316" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="7" t="s">
         <v>314</v>
       </c>
@@ -6781,7 +6801,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="317" spans="2:5" ht="15" customHeight="1">
+    <row r="317" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="4" t="s">
         <v>315</v>
       </c>
@@ -6796,7 +6816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="2:5" ht="15" customHeight="1">
+    <row r="318" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="7" t="s">
         <v>316</v>
       </c>
@@ -6811,7 +6831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="2:5" ht="15" customHeight="1">
+    <row r="319" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="4" t="s">
         <v>317</v>
       </c>
@@ -6826,7 +6846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="320" spans="2:5" ht="15" customHeight="1">
+    <row r="320" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="7" t="s">
         <v>318</v>
       </c>
@@ -6841,7 +6861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="15" customHeight="1">
+    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="4" t="s">
         <v>319</v>
       </c>
@@ -6856,7 +6876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="15" customHeight="1">
+    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="13" t="s">
         <v>487</v>
       </c>
@@ -6871,7 +6891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="15" customHeight="1">
+    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="7" t="s">
         <v>320</v>
       </c>
@@ -6886,7 +6906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="15" customHeight="1">
+    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="4" t="s">
         <v>321</v>
       </c>
@@ -6901,7 +6921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="15" customHeight="1">
+    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="7" t="s">
         <v>322</v>
       </c>
@@ -6916,7 +6936,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="15" customHeight="1">
+    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="4" t="s">
         <v>323</v>
       </c>
@@ -6931,7 +6951,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="15" customHeight="1">
+    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="7" t="s">
         <v>324</v>
       </c>
@@ -6946,7 +6966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="15" customHeight="1">
+    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="4" t="s">
         <v>325</v>
       </c>
@@ -6961,7 +6981,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="15" customHeight="1">
+    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="7" t="s">
         <v>326</v>
       </c>
@@ -6976,7 +6996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="15" customHeight="1">
+    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="4" t="s">
         <v>327</v>
       </c>
@@ -6991,7 +7011,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="15" customHeight="1">
+    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="7" t="s">
         <v>328</v>
       </c>
@@ -7006,7 +7026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="15" customHeight="1">
+    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="4" t="s">
         <v>329</v>
       </c>
@@ -7021,7 +7041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="15" customHeight="1">
+    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="7" t="s">
         <v>330</v>
       </c>
@@ -7036,7 +7056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="15" customHeight="1">
+    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="4" t="s">
         <v>331</v>
       </c>
@@ -7051,7 +7071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="15" customHeight="1">
+    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="7" t="s">
         <v>332</v>
       </c>
@@ -7066,7 +7086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="15" customHeight="1">
+    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="4" t="s">
         <v>333</v>
       </c>
@@ -7074,14 +7094,14 @@
         <v>23</v>
       </c>
       <c r="D336" s="5">
-        <f t="shared" si="6"/>
+        <f>6.6032*LN(C336)+3.0172</f>
         <v>23.721495406623362</v>
       </c>
       <c r="E336" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="2:5" ht="15" customHeight="1">
+    <row r="337" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="7" t="s">
         <v>334</v>
       </c>
@@ -7096,7 +7116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="2:5" ht="15" customHeight="1">
+    <row r="338" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="4" t="s">
         <v>335</v>
       </c>
@@ -7111,7 +7131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="2:5" ht="15" customHeight="1">
+    <row r="339" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="7" t="s">
         <v>336</v>
       </c>
@@ -7126,7 +7146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="340" spans="2:5" ht="15" customHeight="1">
+    <row r="340" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="4" t="s">
         <v>337</v>
       </c>
@@ -7141,7 +7161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="2:5" ht="15" customHeight="1">
+    <row r="341" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="7" t="s">
         <v>338</v>
       </c>
@@ -7156,7 +7176,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="342" spans="2:5" ht="15" customHeight="1">
+    <row r="342" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="4" t="s">
         <v>339</v>
       </c>
@@ -7171,7 +7191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="343" spans="2:5" ht="15" customHeight="1">
+    <row r="343" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="7" t="s">
         <v>340</v>
       </c>
@@ -7186,7 +7206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="2:5" ht="15" customHeight="1">
+    <row r="344" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="4" t="s">
         <v>341</v>
       </c>
@@ -7201,7 +7221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="2:5" ht="15" customHeight="1">
+    <row r="345" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="7" t="s">
         <v>342</v>
       </c>
@@ -7216,7 +7236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="346" spans="2:5" ht="15" customHeight="1">
+    <row r="346" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="4" t="s">
         <v>343</v>
       </c>
@@ -7231,7 +7251,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="347" spans="2:5" ht="15" customHeight="1">
+    <row r="347" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="7" t="s">
         <v>344</v>
       </c>
@@ -7246,7 +7266,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="2:5" ht="15" customHeight="1">
+    <row r="348" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="17" t="s">
         <v>490</v>
       </c>
@@ -7261,7 +7281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="349" spans="2:5" ht="15" customHeight="1">
+    <row r="349" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="4" t="s">
         <v>345</v>
       </c>
@@ -7276,7 +7296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="350" spans="2:5" ht="15" customHeight="1">
+    <row r="350" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="7" t="s">
         <v>346</v>
       </c>
@@ -7291,7 +7311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="15" customHeight="1">
+    <row r="351" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="4" t="s">
         <v>347</v>
       </c>
@@ -7306,7 +7326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="15" customHeight="1">
+    <row r="352" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="7" t="s">
         <v>348</v>
       </c>
@@ -7321,7 +7341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="15" customHeight="1">
+    <row r="353" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="4" t="s">
         <v>349</v>
       </c>
@@ -7336,7 +7356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="15" customHeight="1">
+    <row r="354" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="7" t="s">
         <v>350</v>
       </c>
@@ -7351,7 +7371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="15" customHeight="1">
+    <row r="355" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="4" t="s">
         <v>351</v>
       </c>
@@ -7366,7 +7386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="15" customHeight="1">
+    <row r="356" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="7" t="s">
         <v>352</v>
       </c>
@@ -7381,7 +7401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="357" spans="2:5" ht="15" customHeight="1">
+    <row r="357" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="4" t="s">
         <v>353</v>
       </c>
@@ -7396,7 +7416,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="358" spans="2:5" ht="15" customHeight="1">
+    <row r="358" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="7" t="s">
         <v>354</v>
       </c>
@@ -7411,7 +7431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="15" customHeight="1">
+    <row r="359" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="4" t="s">
         <v>355</v>
       </c>
@@ -7426,7 +7446,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="15" customHeight="1">
+    <row r="360" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="7" t="s">
         <v>356</v>
       </c>
@@ -7441,7 +7461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="15" customHeight="1">
+    <row r="361" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="4" t="s">
         <v>357</v>
       </c>
@@ -7456,7 +7476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="15" customHeight="1">
+    <row r="362" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="7" t="s">
         <v>358</v>
       </c>
@@ -7471,7 +7491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="15" customHeight="1">
+    <row r="363" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="4" t="s">
         <v>359</v>
       </c>
@@ -7486,7 +7506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="15" customHeight="1">
+    <row r="364" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="7" t="s">
         <v>360</v>
       </c>
@@ -7501,7 +7521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="15" customHeight="1">
+    <row r="365" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="4" t="s">
         <v>361</v>
       </c>
@@ -7516,7 +7536,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="366" spans="2:5" ht="15" customHeight="1">
+    <row r="366" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="7" t="s">
         <v>362</v>
       </c>
@@ -7531,7 +7551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="367" spans="2:5" ht="15" customHeight="1">
+    <row r="367" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="4" t="s">
         <v>363</v>
       </c>
@@ -7546,7 +7566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="2:5" ht="15" customHeight="1">
+    <row r="368" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="7" t="s">
         <v>364</v>
       </c>
@@ -7561,7 +7581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="15" customHeight="1">
+    <row r="369" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="4" t="s">
         <v>365</v>
       </c>
@@ -7576,7 +7596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="15" customHeight="1">
+    <row r="370" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="7" t="s">
         <v>366</v>
       </c>
@@ -7591,7 +7611,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="15" customHeight="1">
+    <row r="371" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="4" t="s">
         <v>367</v>
       </c>
@@ -7606,7 +7626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="15" customHeight="1">
+    <row r="372" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="7" t="s">
         <v>368</v>
       </c>
@@ -7621,7 +7641,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="15" customHeight="1">
+    <row r="373" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="4" t="s">
         <v>369</v>
       </c>
@@ -7636,7 +7656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="15" customHeight="1">
+    <row r="374" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="7" t="s">
         <v>370</v>
       </c>
@@ -7651,7 +7671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="15" customHeight="1">
+    <row r="375" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="4" t="s">
         <v>371</v>
       </c>
@@ -7666,7 +7686,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="376" spans="2:5" ht="15" customHeight="1">
+    <row r="376" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="7" t="s">
         <v>372</v>
       </c>
@@ -7681,7 +7701,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="377" spans="2:5" ht="15" customHeight="1">
+    <row r="377" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="4" t="s">
         <v>373</v>
       </c>
@@ -7696,7 +7716,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="15" customHeight="1">
+    <row r="378" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="7" t="s">
         <v>374</v>
       </c>
@@ -7711,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="15" customHeight="1">
+    <row r="379" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="4" t="s">
         <v>375</v>
       </c>
@@ -7726,7 +7746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="15" customHeight="1">
+    <row r="380" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="7" t="s">
         <v>376</v>
       </c>
@@ -7741,7 +7761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="381" spans="2:5" ht="15" customHeight="1">
+    <row r="381" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="17" t="s">
         <v>489</v>
       </c>
@@ -7756,7 +7776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="15" customHeight="1">
+    <row r="382" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="4" t="s">
         <v>377</v>
       </c>
@@ -7771,7 +7791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" spans="2:5" ht="15" customHeight="1">
+    <row r="383" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="7" t="s">
         <v>378</v>
       </c>
@@ -7786,7 +7806,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="15" customHeight="1">
+    <row r="384" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="4" t="s">
         <v>379</v>
       </c>
@@ -7801,7 +7821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="2:5" ht="15" customHeight="1">
+    <row r="385" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="7" t="s">
         <v>380</v>
       </c>
@@ -7816,7 +7836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="2:5" ht="15" customHeight="1">
+    <row r="386" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="4" t="s">
         <v>381</v>
       </c>
@@ -7831,7 +7851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="2:5" ht="15" customHeight="1">
+    <row r="387" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="7" t="s">
         <v>382</v>
       </c>
@@ -7846,7 +7866,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="388" spans="2:5" ht="15" customHeight="1">
+    <row r="388" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="4" t="s">
         <v>383</v>
       </c>
@@ -7861,7 +7881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="389" spans="2:5" ht="15" customHeight="1">
+    <row r="389" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="7" t="s">
         <v>384</v>
       </c>
@@ -7876,7 +7896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="390" spans="2:5" ht="15" customHeight="1">
+    <row r="390" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="4" t="s">
         <v>385</v>
       </c>
@@ -7891,7 +7911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:5" ht="15" customHeight="1">
+    <row r="391" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="7" t="s">
         <v>386</v>
       </c>
@@ -7906,7 +7926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="2:5" ht="15" customHeight="1">
+    <row r="392" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="4" t="s">
         <v>387</v>
       </c>
@@ -7921,7 +7941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="2:5" ht="15" customHeight="1">
+    <row r="393" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="7" t="s">
         <v>388</v>
       </c>
@@ -7936,7 +7956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="2:5" ht="15" customHeight="1">
+    <row r="394" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="4" t="s">
         <v>389</v>
       </c>
@@ -7951,7 +7971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="395" spans="2:5" ht="15" customHeight="1">
+    <row r="395" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="7" t="s">
         <v>390</v>
       </c>
@@ -7966,7 +7986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="396" spans="2:5" ht="15" customHeight="1">
+    <row r="396" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="4" t="s">
         <v>391</v>
       </c>
@@ -7981,7 +8001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="15" customHeight="1">
+    <row r="397" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="7" t="s">
         <v>392</v>
       </c>
@@ -7996,7 +8016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="398" spans="2:5" ht="15" customHeight="1">
+    <row r="398" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="4" t="s">
         <v>393</v>
       </c>
@@ -8011,7 +8031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="2:5" ht="15" customHeight="1">
+    <row r="399" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="7" t="s">
         <v>394</v>
       </c>
@@ -8026,7 +8046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="2:5" ht="15" customHeight="1">
+    <row r="400" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="4" t="s">
         <v>395</v>
       </c>
@@ -8041,7 +8061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="15" customHeight="1">
+    <row r="401" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="7" t="s">
         <v>396</v>
       </c>
@@ -8056,7 +8076,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="402" spans="2:5" ht="15" customHeight="1">
+    <row r="402" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="4" t="s">
         <v>397</v>
       </c>
@@ -8071,7 +8091,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="403" spans="2:5" ht="15" customHeight="1">
+    <row r="403" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="7" t="s">
         <v>398</v>
       </c>
@@ -8086,7 +8106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="2:5" ht="15" customHeight="1">
+    <row r="404" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="4" t="s">
         <v>399</v>
       </c>
@@ -8101,7 +8121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="2:5" ht="15" customHeight="1">
+    <row r="405" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="7" t="s">
         <v>400</v>
       </c>
@@ -8116,7 +8136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="2:5" ht="15" customHeight="1">
+    <row r="406" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="4" t="s">
         <v>401</v>
       </c>
@@ -8131,7 +8151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="2:5" ht="15" customHeight="1">
+    <row r="407" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="7" t="s">
         <v>402</v>
       </c>
@@ -8146,7 +8166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:5" ht="15" customHeight="1">
+    <row r="408" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="4" t="s">
         <v>403</v>
       </c>
@@ -8161,7 +8181,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="15" customHeight="1">
+    <row r="409" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="7" t="s">
         <v>404</v>
       </c>
@@ -8176,7 +8196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="2:5" ht="15" customHeight="1">
+    <row r="410" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="4" t="s">
         <v>405</v>
       </c>
@@ -8191,7 +8211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="2:5" ht="15" customHeight="1">
+    <row r="411" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="7" t="s">
         <v>406</v>
       </c>
@@ -8206,7 +8226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="2:5" ht="15" customHeight="1">
+    <row r="412" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="4" t="s">
         <v>407</v>
       </c>
@@ -8221,7 +8241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="2:5" ht="15" customHeight="1">
+    <row r="413" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="7" t="s">
         <v>408</v>
       </c>
@@ -8236,7 +8256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="414" spans="2:5" ht="15" customHeight="1">
+    <row r="414" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="4" t="s">
         <v>409</v>
       </c>
@@ -8251,7 +8271,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="415" spans="2:5" ht="15" customHeight="1">
+    <row r="415" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="7" t="s">
         <v>410</v>
       </c>
@@ -8266,7 +8286,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="416" spans="2:5" ht="15" customHeight="1">
+    <row r="416" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="4" t="s">
         <v>411</v>
       </c>
@@ -8281,7 +8301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="417" spans="2:5" ht="15" customHeight="1">
+    <row r="417" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="7" t="s">
         <v>412</v>
       </c>
@@ -8296,7 +8316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="2:5" ht="15" customHeight="1">
+    <row r="418" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="4" t="s">
         <v>413</v>
       </c>
@@ -8311,7 +8331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:5" ht="15" customHeight="1">
+    <row r="419" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="7" t="s">
         <v>414</v>
       </c>
@@ -8326,7 +8346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="420" spans="2:5" ht="15" customHeight="1">
+    <row r="420" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="4" t="s">
         <v>415</v>
       </c>
@@ -8341,7 +8361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="2:5" ht="15" customHeight="1">
+    <row r="421" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="7" t="s">
         <v>416</v>
       </c>
@@ -8356,7 +8376,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="422" spans="2:5" ht="15" customHeight="1">
+    <row r="422" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="4" t="s">
         <v>417</v>
       </c>
@@ -8371,7 +8391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="2:5" ht="15" customHeight="1">
+    <row r="423" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="7" t="s">
         <v>418</v>
       </c>
@@ -8386,7 +8406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="2:5" ht="15" customHeight="1">
+    <row r="424" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="4" t="s">
         <v>419</v>
       </c>
@@ -8401,7 +8421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="425" spans="2:5" ht="15" customHeight="1">
+    <row r="425" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="7" t="s">
         <v>420</v>
       </c>
@@ -8416,7 +8436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="426" spans="2:5" ht="15" customHeight="1">
+    <row r="426" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="4" t="s">
         <v>421</v>
       </c>
@@ -8431,7 +8451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="427" spans="2:5" ht="15" customHeight="1">
+    <row r="427" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="7" t="s">
         <v>422</v>
       </c>
@@ -8446,7 +8466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="2:5" ht="15" customHeight="1">
+    <row r="428" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="4" t="s">
         <v>423</v>
       </c>
@@ -8461,7 +8481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="429" spans="2:5" ht="15" customHeight="1">
+    <row r="429" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="7" t="s">
         <v>424</v>
       </c>
@@ -8476,7 +8496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:5" ht="15" customHeight="1">
+    <row r="430" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="4" t="s">
         <v>425</v>
       </c>
@@ -8491,7 +8511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="2:5" ht="15" customHeight="1">
+    <row r="431" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="7" t="s">
         <v>426</v>
       </c>
@@ -8506,7 +8526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="2:5" ht="15" customHeight="1">
+    <row r="432" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="4" t="s">
         <v>427</v>
       </c>
@@ -8521,7 +8541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="2:5" ht="15" customHeight="1">
+    <row r="433" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="7" t="s">
         <v>428</v>
       </c>
@@ -8536,7 +8556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="2:5" ht="15" customHeight="1">
+    <row r="434" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="4" t="s">
         <v>429</v>
       </c>
@@ -8551,7 +8571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="435" spans="2:5" ht="15" customHeight="1">
+    <row r="435" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="7" t="s">
         <v>430</v>
       </c>
@@ -8566,7 +8586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="436" spans="2:5" ht="15" customHeight="1">
+    <row r="436" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="4" t="s">
         <v>431</v>
       </c>
@@ -8581,7 +8601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="437" spans="2:5" ht="15" customHeight="1">
+    <row r="437" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="7" t="s">
         <v>432</v>
       </c>
@@ -8596,7 +8616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="438" spans="2:5" ht="15" customHeight="1">
+    <row r="438" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="4" t="s">
         <v>433</v>
       </c>
@@ -8611,7 +8631,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="439" spans="2:5" ht="15" customHeight="1">
+    <row r="439" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="7" t="s">
         <v>434</v>
       </c>
@@ -8626,7 +8646,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="440" spans="2:5" ht="15" customHeight="1">
+    <row r="440" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="4" t="s">
         <v>435</v>
       </c>
@@ -8641,7 +8661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="441" spans="2:5" ht="15" customHeight="1">
+    <row r="441" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="7" t="s">
         <v>436</v>
       </c>
@@ -8656,7 +8676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="442" spans="2:5" ht="15" customHeight="1">
+    <row r="442" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="4" t="s">
         <v>437</v>
       </c>
@@ -8671,7 +8691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="443" spans="2:5" ht="15" customHeight="1">
+    <row r="443" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="7" t="s">
         <v>438</v>
       </c>
@@ -8686,7 +8706,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="444" spans="2:5" ht="15" customHeight="1">
+    <row r="444" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="4" t="s">
         <v>439</v>
       </c>
@@ -8701,7 +8721,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="445" spans="2:5" ht="15" customHeight="1">
+    <row r="445" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="7" t="s">
         <v>440</v>
       </c>
@@ -8716,7 +8736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="446" spans="2:5" ht="15" customHeight="1">
+    <row r="446" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="4" t="s">
         <v>441</v>
       </c>
@@ -8731,7 +8751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="447" spans="2:5" ht="15" customHeight="1">
+    <row r="447" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="7" t="s">
         <v>442</v>
       </c>
@@ -8746,7 +8766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="448" spans="2:5" ht="15" customHeight="1">
+    <row r="448" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="4" t="s">
         <v>443</v>
       </c>
@@ -8761,7 +8781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="449" spans="2:5" ht="15" customHeight="1">
+    <row r="449" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="7" t="s">
         <v>444</v>
       </c>
@@ -8776,7 +8796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="450" spans="2:5" ht="15" customHeight="1">
+    <row r="450" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="4" t="s">
         <v>445</v>
       </c>
@@ -8791,7 +8811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="2:5" ht="15" customHeight="1">
+    <row r="451" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="7" t="s">
         <v>446</v>
       </c>
@@ -8806,7 +8826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="2:5" ht="15" customHeight="1">
+    <row r="452" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="4" t="s">
         <v>447</v>
       </c>
@@ -8821,7 +8841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="2:5" ht="15" customHeight="1">
+    <row r="453" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="7" t="s">
         <v>448</v>
       </c>
@@ -8836,7 +8856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="2:5" ht="15" customHeight="1">
+    <row r="454" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="4" t="s">
         <v>449</v>
       </c>
@@ -8851,7 +8871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="455" spans="2:5" ht="15" customHeight="1">
+    <row r="455" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="7" t="s">
         <v>450</v>
       </c>
@@ -8866,7 +8886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="456" spans="2:5" ht="15" customHeight="1">
+    <row r="456" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="4" t="s">
         <v>451</v>
       </c>
@@ -8881,7 +8901,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="457" spans="2:5" ht="15" customHeight="1">
+    <row r="457" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="7" t="s">
         <v>452</v>
       </c>
@@ -8896,7 +8916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="2:5" ht="15" customHeight="1">
+    <row r="458" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="4" t="s">
         <v>453</v>
       </c>
@@ -8911,7 +8931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="459" spans="2:5" ht="15" customHeight="1">
+    <row r="459" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="7" t="s">
         <v>454</v>
       </c>
@@ -8926,7 +8946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="460" spans="2:5" ht="15" customHeight="1">
+    <row r="460" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="4" t="s">
         <v>455</v>
       </c>
@@ -8941,7 +8961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="2:5" ht="15" customHeight="1">
+    <row r="461" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="7" t="s">
         <v>456</v>
       </c>
@@ -8956,7 +8976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="2:5" ht="15" customHeight="1">
+    <row r="462" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="4" t="s">
         <v>457</v>
       </c>
@@ -8971,7 +8991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="463" spans="2:5" ht="15" customHeight="1">
+    <row r="463" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="7" t="s">
         <v>458</v>
       </c>
@@ -8986,7 +9006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="464" spans="2:5" ht="15" customHeight="1">
+    <row r="464" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="4" t="s">
         <v>459</v>
       </c>
@@ -9001,7 +9021,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="465" spans="2:5" ht="15" customHeight="1">
+    <row r="465" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="7" t="s">
         <v>460</v>
       </c>
@@ -9016,7 +9036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="466" spans="2:5" ht="15" customHeight="1">
+    <row r="466" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="4" t="s">
         <v>461</v>
       </c>
@@ -9031,7 +9051,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="2:5" ht="15" customHeight="1">
+    <row r="467" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="12" t="s">
         <v>486</v>
       </c>
@@ -9046,7 +9066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="2:5" ht="15" customHeight="1">
+    <row r="468" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="12" t="s">
         <v>485</v>
       </c>
@@ -9061,7 +9081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="2:5" ht="15" customHeight="1">
+    <row r="469" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="4" t="s">
         <v>462</v>
       </c>
@@ -9076,7 +9096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="2:5" ht="15" customHeight="1">
+    <row r="470" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="7" t="s">
         <v>463</v>
       </c>
@@ -9091,7 +9111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="2:5" ht="15" customHeight="1">
+    <row r="471" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="4" t="s">
         <v>464</v>
       </c>
@@ -9106,7 +9126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="2:5" ht="15" customHeight="1">
+    <row r="472" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="7" t="s">
         <v>465</v>
       </c>
@@ -9121,7 +9141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="2:5" ht="15" customHeight="1">
+    <row r="473" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="4" t="s">
         <v>466</v>
       </c>
@@ -9136,7 +9156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="474" spans="2:5" ht="15" customHeight="1">
+    <row r="474" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="7" t="s">
         <v>467</v>
       </c>
@@ -9151,7 +9171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="2:5" ht="15" customHeight="1">
+    <row r="475" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="4" t="s">
         <v>468</v>
       </c>
@@ -9166,7 +9186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="476" spans="2:5" ht="15" customHeight="1">
+    <row r="476" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="7" t="s">
         <v>469</v>
       </c>
@@ -9181,7 +9201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="2:5" ht="15" customHeight="1">
+    <row r="477" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="4" t="s">
         <v>470</v>
       </c>
@@ -9196,7 +9216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="478" spans="2:5" ht="15" customHeight="1">
+    <row r="478" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="7" t="s">
         <v>471</v>
       </c>
@@ -9211,7 +9231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="479" spans="2:5" ht="15" customHeight="1">
+    <row r="479" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="4" t="s">
         <v>472</v>
       </c>
@@ -9226,7 +9246,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="480" spans="2:5" ht="15" customHeight="1">
+    <row r="480" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="7" t="s">
         <v>473</v>
       </c>
@@ -9241,7 +9261,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="481" spans="2:5" ht="15" customHeight="1">
+    <row r="481" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="4" t="s">
         <v>474</v>
       </c>
@@ -9256,7 +9276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="482" spans="2:5" ht="15" customHeight="1">
+    <row r="482" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="7" t="s">
         <v>475</v>
       </c>
@@ -9271,7 +9291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="483" spans="2:5" ht="15" customHeight="1">
+    <row r="483" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="4" t="s">
         <v>476</v>
       </c>
@@ -9286,7 +9306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="484" spans="2:5" ht="15" customHeight="1">
+    <row r="484" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="7" t="s">
         <v>477</v>
       </c>
@@ -9301,7 +9321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="485" spans="2:5" ht="15" customHeight="1">
+    <row r="485" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="4" t="s">
         <v>478</v>
       </c>
@@ -9316,7 +9336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="15" customHeight="1">
+    <row r="486" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="7" t="s">
         <v>479</v>
       </c>
@@ -9331,7 +9351,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="487" spans="2:5" ht="15" customHeight="1">
+    <row r="487" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="4" t="s">
         <v>480</v>
       </c>
@@ -9346,7 +9366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="488" spans="2:5" ht="15" customHeight="1">
+    <row r="488" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="7" t="s">
         <v>481</v>
       </c>
@@ -9361,7 +9381,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="489" spans="2:5" ht="15" customHeight="1">
+    <row r="489" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="4" t="s">
         <v>482</v>
       </c>
@@ -9376,7 +9396,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="490" spans="2:5" ht="15" customHeight="1">
+    <row r="490" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="7" t="s">
         <v>483</v>
       </c>
@@ -9391,7 +9411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="2:5" ht="15" customHeight="1">
+    <row r="491" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="4" t="s">
         <v>484</v>
       </c>
